--- a/tests/data/validation_nc_duplicates.xlsx
+++ b/tests/data/validation_nc_duplicates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dh/GitHub/iam-nomenclature/tests/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\castella\Documents\nomenclature\tests\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C14FDA6B-A982-E14D-9B8B-25D1961AA561}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6566CE7C-5C0A-4A12-AE31-B39FEF748C61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16720" xr2:uid="{0F9244D2-4204-924B-B60F-D0EDDF1426AF}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" xr2:uid="{0F9244D2-4204-924B-B60F-D0EDDF1426AF}"/>
   </bookViews>
   <sheets>
     <sheet name="duplicate_index_raises" sheetId="1" r:id="rId1"/>
@@ -42,9 +42,6 @@
     <t>Unit</t>
   </si>
   <si>
-    <t>Definition</t>
-  </si>
-  <si>
     <t>Primary Energy</t>
   </si>
   <si>
@@ -58,6 +55,9 @@
   </si>
   <si>
     <t>primary energy consumption of bioenergy crops, …</t>
+  </si>
+  <si>
+    <t>Description</t>
   </si>
 </sst>
 </file>
@@ -97,7 +97,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -134,7 +134,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -433,15 +433,15 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -449,40 +449,40 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
